--- a/NAM3.xlsx
+++ b/NAM3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="228">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -413,6 +413,12 @@
     <t>PR1</t>
   </si>
   <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI</t>
+  </si>
+  <si>
+    <t>Git con todos los archivos del software y entregables</t>
+  </si>
+  <si>
     <t>A.1.1</t>
   </si>
   <si>
@@ -452,13 +458,13 @@
     <t>PR2</t>
   </si>
   <si>
-    <t>Extracción de imagen de Hemoglobina</t>
+    <t>Extracción TSPs</t>
   </si>
   <si>
     <t>A.2.1</t>
   </si>
   <si>
-    <t>Separar la imagen de luz captada en sus canales</t>
+    <t>extracción de TSP por frame en matlab</t>
   </si>
   <si>
     <t>Joaquin, Daniel, Tomas, Phillipa</t>
@@ -467,10 +473,13 @@
     <t>100%%</t>
   </si>
   <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/commit/c7efaecfafc9b873bdb6b0ef82957f8f7d3f900b</t>
+  </si>
+  <si>
     <t>A.2.2</t>
   </si>
   <si>
-    <t>Determinar que canal es el mas representativo</t>
+    <t>Envio de frames e instanciación por python.</t>
   </si>
   <si>
     <t>PR3</t>
@@ -543,6 +552,9 @@
   </si>
   <si>
     <t>Obtencion del dataset</t>
+  </si>
+  <si>
+    <t>Video Demostrativo del Avance.</t>
   </si>
   <si>
     <t>Adquisición</t>
@@ -698,7 +710,7 @@
     <numFmt numFmtId="165" formatCode="mmm d, yyyy"/>
     <numFmt numFmtId="166" formatCode="d mmm, yyyy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -813,12 +825,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="8.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1207,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="221">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1563,7 +1581,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1587,21 +1605,27 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1610,7 +1634,7 @@
     <xf borderId="12" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1640,7 +1664,7 @@
     <xf borderId="12" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1649,16 +1673,16 @@
     <xf borderId="12" fillId="4" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1670,10 +1694,10 @@
     <xf borderId="12" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1682,8 +1706,8 @@
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1694,13 +1718,16 @@
     <xf borderId="7" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1712,7 +1739,7 @@
     <xf borderId="12" fillId="4" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1724,12 +1751,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1745,7 +1772,7 @@
     <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1757,7 +1784,7 @@
     <xf borderId="12" fillId="9" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="9" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="9" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="9" fontId="21" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1772,16 +1799,16 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="9" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="9" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1790,16 +1817,16 @@
     <xf borderId="12" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="6" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="4" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1815,7 +1842,7 @@
     <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="9" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="9" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6718,8 +6745,12 @@
       <c r="E2" s="125"/>
       <c r="F2" s="126"/>
       <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="124"/>
+      <c r="H2" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="J2" s="129"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -6741,13 +6772,13 @@
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D3" s="133">
         <v>44511.0</v>
@@ -6761,7 +6792,7 @@
       <c r="G3" s="135">
         <v>1.0</v>
       </c>
-      <c r="H3" s="128"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="124"/>
       <c r="J3" s="129"/>
       <c r="K3" s="3"/>
@@ -6783,14 +6814,14 @@
       <c r="AA3" s="130"/>
     </row>
     <row r="4" ht="29.25" customHeight="1">
-      <c r="A4" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="137" t="s">
-        <v>136</v>
+      <c r="A4" s="137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>138</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" s="133">
         <v>44511.0</v>
@@ -6804,7 +6835,7 @@
       <c r="G4" s="135">
         <v>1.0</v>
       </c>
-      <c r="H4" s="128"/>
+      <c r="H4" s="136"/>
       <c r="I4" s="124"/>
       <c r="J4" s="129"/>
       <c r="K4" s="3"/>
@@ -6826,14 +6857,14 @@
       <c r="AA4" s="130"/>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>139</v>
+      <c r="A5" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="133">
         <v>44515.0</v>
@@ -6847,7 +6878,7 @@
       <c r="G5" s="135">
         <v>1.0</v>
       </c>
-      <c r="H5" s="128"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="124"/>
       <c r="J5" s="129"/>
       <c r="K5" s="3"/>
@@ -6869,16 +6900,16 @@
       <c r="AA5" s="130"/>
     </row>
     <row r="6" ht="33.75" customHeight="1">
-      <c r="A6" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>142</v>
+      <c r="A6" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>144</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="139">
+        <v>145</v>
+      </c>
+      <c r="D6" s="141">
         <v>44518.0</v>
       </c>
       <c r="E6" s="133">
@@ -6890,7 +6921,7 @@
       <c r="G6" s="135">
         <v>1.0</v>
       </c>
-      <c r="H6" s="140"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="124"/>
       <c r="J6" s="129"/>
       <c r="K6" s="3"/>
@@ -6912,18 +6943,18 @@
       <c r="AA6" s="130"/>
     </row>
     <row r="7" ht="29.25" customHeight="1">
-      <c r="A7" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="141" t="s">
-        <v>145</v>
+      <c r="A7" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="143" t="s">
+        <v>147</v>
       </c>
       <c r="C7" s="124"/>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="134"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="140"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="142"/>
       <c r="I7" s="124"/>
       <c r="J7" s="129"/>
       <c r="K7" s="3"/>
@@ -6945,14 +6976,14 @@
       <c r="AA7" s="130"/>
     </row>
     <row r="8" ht="39.75" customHeight="1">
-      <c r="A8" s="136" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="137" t="s">
-        <v>147</v>
+      <c r="A8" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>149</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="133">
         <v>44521.0</v>
@@ -6961,12 +6992,14 @@
         <v>44523.0</v>
       </c>
       <c r="F8" s="134">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="128"/>
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>152</v>
+      </c>
       <c r="I8" s="124"/>
       <c r="J8" s="129"/>
       <c r="K8" s="3"/>
@@ -6988,14 +7021,14 @@
       <c r="AA8" s="130"/>
     </row>
     <row r="9" ht="47.25" customHeight="1">
-      <c r="A9" s="138" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="137" t="s">
-        <v>151</v>
+      <c r="A9" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>154</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="133">
         <v>44525.0</v>
@@ -7006,10 +7039,10 @@
       <c r="F9" s="134">
         <v>1.0</v>
       </c>
-      <c r="G9" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="128"/>
+      <c r="G9" s="145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="136"/>
       <c r="I9" s="124"/>
       <c r="J9" s="129"/>
       <c r="K9" s="3"/>
@@ -7031,18 +7064,18 @@
       <c r="AA9" s="130"/>
     </row>
     <row r="10" ht="24.0" customHeight="1">
-      <c r="A10" s="144" t="s">
-        <v>152</v>
+      <c r="A10" s="146" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C10" s="124"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="128"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="136"/>
       <c r="I10" s="124"/>
       <c r="J10" s="129"/>
       <c r="K10" s="3"/>
@@ -7064,19 +7097,19 @@
       <c r="AA10" s="130"/>
     </row>
     <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="138" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="137" t="s">
-        <v>155</v>
+      <c r="A11" s="140" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="147">
+        <v>142</v>
+      </c>
+      <c r="D11" s="149">
         <v>44529.0</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="150">
         <v>44530.0</v>
       </c>
       <c r="F11" s="134">
@@ -7085,7 +7118,7 @@
       <c r="G11" s="135">
         <v>0.2</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="136"/>
       <c r="I11" s="124"/>
       <c r="J11" s="129"/>
       <c r="K11" s="3"/>
@@ -7107,14 +7140,14 @@
       <c r="AA11" s="130"/>
     </row>
     <row r="12" ht="30.75" customHeight="1">
-      <c r="A12" s="138" t="s">
-        <v>156</v>
+      <c r="A12" s="140" t="s">
+        <v>159</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D12" s="133">
         <v>44532.0</v>
@@ -7128,7 +7161,7 @@
       <c r="G12" s="135">
         <v>0.2</v>
       </c>
-      <c r="H12" s="128"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="124"/>
       <c r="J12" s="129"/>
       <c r="K12" s="3"/>
@@ -7150,18 +7183,18 @@
       <c r="AA12" s="130"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="136" t="s">
-        <v>159</v>
+      <c r="A13" s="137" t="s">
+        <v>162</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C13" s="124"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="128"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="136"/>
       <c r="I13" s="124"/>
       <c r="J13" s="129"/>
       <c r="K13" s="3"/>
@@ -7183,29 +7216,29 @@
       <c r="AA13" s="130"/>
     </row>
     <row r="14" ht="39.0" customHeight="1">
-      <c r="A14" s="149" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="150" t="s">
-        <v>162</v>
+      <c r="A14" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="152" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="151">
+        <v>166</v>
+      </c>
+      <c r="D14" s="153">
         <v>44543.0</v>
       </c>
-      <c r="E14" s="151">
+      <c r="E14" s="153">
         <v>44544.0</v>
       </c>
-      <c r="F14" s="152">
+      <c r="F14" s="154">
         <v>100.0</v>
       </c>
-      <c r="G14" s="153">
+      <c r="G14" s="155">
         <v>0.2</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
       <c r="J14" s="129"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -7226,29 +7259,29 @@
       <c r="AA14" s="130"/>
     </row>
     <row r="15">
-      <c r="A15" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="150" t="s">
-        <v>165</v>
+      <c r="A15" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="152" t="s">
+        <v>168</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="151">
+        <v>169</v>
+      </c>
+      <c r="D15" s="153">
         <v>44544.0</v>
       </c>
-      <c r="E15" s="151">
+      <c r="E15" s="153">
         <v>44548.0</v>
       </c>
-      <c r="F15" s="156">
+      <c r="F15" s="158">
         <v>0.8</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="155">
         <v>0.2</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="155"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="129"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -7269,31 +7302,31 @@
       <c r="AA15" s="130"/>
     </row>
     <row r="16" ht="39.0" customHeight="1">
-      <c r="A16" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="150" t="s">
-        <v>168</v>
+      <c r="A16" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>171</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="151">
+        <v>142</v>
+      </c>
+      <c r="D16" s="153">
         <v>44548.0</v>
       </c>
-      <c r="E16" s="151">
+      <c r="E16" s="153">
         <v>44549.0</v>
       </c>
-      <c r="F16" s="156">
+      <c r="F16" s="158">
         <v>1.0</v>
       </c>
-      <c r="G16" s="153">
+      <c r="G16" s="155">
         <v>0.0</v>
       </c>
-      <c r="H16" s="158"/>
-      <c r="I16" s="159"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="161"/>
       <c r="J16" s="129"/>
-      <c r="K16" s="160"/>
+      <c r="K16" s="162"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="130"/>
@@ -7312,19 +7345,19 @@
       <c r="AA16" s="130"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="161" t="s">
-        <v>170</v>
+      <c r="A17" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>173</v>
       </c>
       <c r="C17" s="124"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="166"/>
       <c r="J17" s="129"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -7345,30 +7378,30 @@
       <c r="AA17" s="130"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="138" t="s">
-        <v>171</v>
+      <c r="A18" s="140" t="s">
+        <v>174</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="151">
+        <v>175</v>
+      </c>
+      <c r="D18" s="153">
         <v>44548.0</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="153">
         <v>44550.0</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="155">
         <v>0.9</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="155">
         <v>0.0</v>
       </c>
-      <c r="H18" s="157"/>
+      <c r="H18" s="159"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="165"/>
+      <c r="J18" s="167"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -7388,19 +7421,19 @@
       <c r="AA18" s="130"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="166" t="s">
+      <c r="A19" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="168" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="124"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="159"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="161"/>
       <c r="J19" s="129"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -7421,29 +7454,29 @@
       <c r="AA19" s="130"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="149" t="s">
-        <v>174</v>
+      <c r="A20" s="151" t="s">
+        <v>177</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="151">
+        <v>142</v>
+      </c>
+      <c r="D20" s="153">
         <v>44545.0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="153">
         <v>44548.0</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="155">
         <v>1.0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="155">
         <v>0.0</v>
       </c>
-      <c r="H20" s="157"/>
-      <c r="I20" s="155"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="157"/>
       <c r="J20" s="129"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -7464,15 +7497,17 @@
       <c r="AA20" s="130"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="172"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
       <c r="J21" s="129"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -7493,15 +7528,15 @@
       <c r="AA21" s="130"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="149"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="124"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="159"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="161"/>
       <c r="J22" s="129"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -7522,15 +7557,15 @@
       <c r="AA22" s="130"/>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="173"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="176"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="124"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="159"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="161"/>
       <c r="J23" s="129"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -7551,15 +7586,15 @@
       <c r="AA23" s="130"/>
     </row>
     <row r="24" ht="30.0" customHeight="1">
-      <c r="A24" s="173"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="176"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="124"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="155"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="157"/>
       <c r="J24" s="129"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -7580,17 +7615,17 @@
       <c r="AA24" s="130"/>
     </row>
     <row r="25" ht="75.0" customHeight="1">
-      <c r="A25" s="173"/>
-      <c r="B25" s="157"/>
+      <c r="A25" s="176"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="160"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="162"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="130"/>
@@ -7609,15 +7644,15 @@
       <c r="AA25" s="130"/>
     </row>
     <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="174"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="177"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="124"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="155"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="157"/>
       <c r="J26" s="129"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -7638,15 +7673,15 @@
       <c r="AA26" s="130"/>
     </row>
     <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="178"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="181"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="124"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="155"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="157"/>
       <c r="J27" s="129"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -7667,15 +7702,15 @@
       <c r="AA27" s="130"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="178"/>
-      <c r="B28" s="157"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="124"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="155"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="157"/>
       <c r="J28" s="129"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -8672,10 +8707,14 @@
   <mergeCells count="1">
     <mergeCell ref="I17:I18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H8"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8726,842 +8765,842 @@
       <c r="G1" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="J1" s="181"/>
+      <c r="H1" s="183"/>
+      <c r="J1" s="184"/>
       <c r="K1" s="129"/>
       <c r="L1" s="129"/>
       <c r="M1" s="129"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="182" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="186"/>
+      <c r="A2" s="185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="186"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="124"/>
-      <c r="H2" s="187"/>
+      <c r="H2" s="190"/>
       <c r="I2" s="129"/>
-      <c r="J2" s="181"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="129"/>
       <c r="L2" s="129"/>
       <c r="M2" s="129"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="188" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="189" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="190" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="191">
+      <c r="A3" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="192" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="193" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="194">
         <v>44459.0</v>
       </c>
-      <c r="E3" s="191">
+      <c r="E3" s="194">
         <v>44472.0</v>
       </c>
-      <c r="F3" s="192">
+      <c r="F3" s="195">
         <v>1.0</v>
       </c>
       <c r="G3" s="124"/>
-      <c r="H3" s="187"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="129"/>
-      <c r="J3" s="181"/>
+      <c r="J3" s="184"/>
       <c r="K3" s="129"/>
       <c r="L3" s="129"/>
       <c r="M3" s="129"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
     </row>
     <row r="4" ht="24.75" customHeight="1">
-      <c r="A4" s="193" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="189" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="190" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="191">
+      <c r="A4" s="196" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="192" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="193" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="194">
         <v>44473.0</v>
       </c>
-      <c r="E4" s="191">
+      <c r="E4" s="194">
         <v>44501.0</v>
       </c>
-      <c r="F4" s="194">
+      <c r="F4" s="197">
         <v>1.0</v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200"/>
     </row>
     <row r="5">
-      <c r="H5" s="187"/>
+      <c r="H5" s="190"/>
       <c r="I5" s="129"/>
-      <c r="J5" s="181"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="129"/>
       <c r="L5" s="129"/>
       <c r="M5" s="129"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="H6" s="187"/>
+      <c r="H6" s="190"/>
       <c r="I6" s="129"/>
-      <c r="J6" s="181"/>
+      <c r="J6" s="184"/>
       <c r="K6" s="129"/>
       <c r="L6" s="129"/>
       <c r="M6" s="129"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="181"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="184"/>
     </row>
     <row r="7" ht="25.5" customHeight="1">
-      <c r="H7" s="187"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="129"/>
-      <c r="J7" s="181"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="129"/>
       <c r="L7" s="129"/>
       <c r="M7" s="129"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
     </row>
     <row r="8">
-      <c r="H8" s="187"/>
+      <c r="H8" s="190"/>
       <c r="I8" s="129"/>
-      <c r="J8" s="181"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="129"/>
       <c r="L8" s="129"/>
       <c r="M8" s="129"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="181"/>
-      <c r="U8" s="181"/>
-      <c r="V8" s="181"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="181"/>
-      <c r="Y8" s="181"/>
-      <c r="Z8" s="181"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="H9" s="195"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="200"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="200"/>
+      <c r="Z9" s="200"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="H10" s="195"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="200"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="200"/>
+      <c r="S10" s="200"/>
+      <c r="T10" s="200"/>
+      <c r="U10" s="200"/>
+      <c r="V10" s="200"/>
+      <c r="W10" s="200"/>
+      <c r="X10" s="200"/>
+      <c r="Y10" s="200"/>
+      <c r="Z10" s="200"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="H11" s="195"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="200"/>
+      <c r="X11" s="200"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="200"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="182" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
+      <c r="A12" s="185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="201"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
       <c r="G12" s="124"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="200"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="200"/>
+      <c r="X12" s="200"/>
+      <c r="Y12" s="200"/>
+      <c r="Z12" s="200"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="188" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="189" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="190" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="191">
+      <c r="A13" s="191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="192" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="193" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="194">
         <v>44459.0</v>
       </c>
-      <c r="E13" s="191">
+      <c r="E13" s="194">
         <v>44463.0</v>
       </c>
-      <c r="F13" s="199">
+      <c r="F13" s="202">
         <v>1.0</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H13" s="195"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="197"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
+        <v>191</v>
+      </c>
+      <c r="H13" s="198"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="200"/>
+      <c r="Z13" s="200"/>
     </row>
     <row r="14">
-      <c r="A14" s="188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="189" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="190" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="191">
+      <c r="A14" s="191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="193" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="194">
         <v>44491.0</v>
       </c>
-      <c r="E14" s="191">
+      <c r="E14" s="194">
         <v>44505.0</v>
       </c>
-      <c r="F14" s="199">
+      <c r="F14" s="202">
         <v>1.0</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="200" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="201" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="202" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="203">
+      <c r="A15" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="204" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="205" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="206">
         <v>44508.0</v>
       </c>
-      <c r="E15" s="203">
+      <c r="E15" s="206">
         <v>44512.0</v>
       </c>
-      <c r="F15" s="204">
+      <c r="F15" s="207">
         <v>0.9</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="205" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="206" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="149" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="151">
+      <c r="A16" s="208" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="151" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="153">
         <v>44522.0</v>
       </c>
-      <c r="E16" s="151">
+      <c r="E16" s="153">
         <v>44284.0</v>
       </c>
-      <c r="F16" s="207">
+      <c r="F16" s="210">
         <v>0.0</v>
       </c>
-      <c r="G16" s="208" t="s">
-        <v>198</v>
+      <c r="G16" s="211" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="209" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="202" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="203">
+      <c r="A17" s="212" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="204" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="205" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="206">
         <v>44533.0</v>
       </c>
-      <c r="E17" s="203">
+      <c r="E17" s="206">
         <v>44540.0</v>
       </c>
-      <c r="F17" s="204">
+      <c r="F17" s="207">
         <v>1.0</v>
       </c>
-      <c r="G17" s="210" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="211"/>
-      <c r="L17" s="211"/>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
+      <c r="G17" s="213" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="214"/>
+      <c r="Q17" s="214"/>
+      <c r="R17" s="214"/>
+      <c r="S17" s="214"/>
+      <c r="T17" s="214"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
     </row>
     <row r="18">
-      <c r="A18" s="209" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="201" t="s">
+      <c r="A18" s="212" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="204" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="205" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="206">
+        <v>44543.0</v>
+      </c>
+      <c r="E18" s="206">
+        <v>44547.0</v>
+      </c>
+      <c r="F18" s="207">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="213" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="214"/>
+      <c r="Q18" s="214"/>
+      <c r="R18" s="214"/>
+      <c r="S18" s="214"/>
+      <c r="T18" s="214"/>
+      <c r="U18" s="214"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="215" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="202" t="s">
+      <c r="C19" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="194">
+        <v>44550.0</v>
+      </c>
+      <c r="E19" s="194">
+        <v>44554.0</v>
+      </c>
+      <c r="F19" s="216">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="217" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="218"/>
+      <c r="S19" s="218"/>
+      <c r="T19" s="218"/>
+      <c r="U19" s="218"/>
+      <c r="V19" s="218"/>
+      <c r="W19" s="218"/>
+      <c r="X19" s="218"/>
+      <c r="Y19" s="218"/>
+      <c r="Z19" s="218"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="192" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="203">
+      <c r="D20" s="194">
+        <v>44533.0</v>
+      </c>
+      <c r="E20" s="194">
+        <v>44540.0</v>
+      </c>
+      <c r="F20" s="216">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="218"/>
+      <c r="R20" s="218"/>
+      <c r="S20" s="218"/>
+      <c r="T20" s="218"/>
+      <c r="U20" s="218"/>
+      <c r="V20" s="218"/>
+      <c r="W20" s="218"/>
+      <c r="X20" s="218"/>
+      <c r="Y20" s="218"/>
+      <c r="Z20" s="218"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="194">
+        <v>44537.0</v>
+      </c>
+      <c r="E21" s="194">
+        <v>44547.0</v>
+      </c>
+      <c r="F21" s="216">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="219" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
+      <c r="S21" s="218"/>
+      <c r="T21" s="218"/>
+      <c r="U21" s="218"/>
+      <c r="V21" s="218"/>
+      <c r="W21" s="218"/>
+      <c r="X21" s="218"/>
+      <c r="Y21" s="218"/>
+      <c r="Z21" s="218"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="215" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="192" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="193" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="194">
+        <v>44540.0</v>
+      </c>
+      <c r="E22" s="194">
+        <v>44550.0</v>
+      </c>
+      <c r="F22" s="216">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
+      <c r="W22" s="218"/>
+      <c r="X22" s="218"/>
+      <c r="Y22" s="218"/>
+      <c r="Z22" s="218"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="194">
         <v>44543.0</v>
       </c>
-      <c r="E18" s="203">
-        <v>44547.0</v>
-      </c>
-      <c r="F18" s="204">
+      <c r="E23" s="194">
+        <v>44559.0</v>
+      </c>
+      <c r="F23" s="216">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="218"/>
+      <c r="R23" s="218"/>
+      <c r="S23" s="218"/>
+      <c r="T23" s="218"/>
+      <c r="U23" s="218"/>
+      <c r="V23" s="218"/>
+      <c r="W23" s="218"/>
+      <c r="X23" s="218"/>
+      <c r="Y23" s="218"/>
+      <c r="Z23" s="218"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="212" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="204" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="205" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="206">
+        <v>44550.0</v>
+      </c>
+      <c r="E24" s="206">
+        <v>44559.0</v>
+      </c>
+      <c r="F24" s="207">
         <v>0.8</v>
       </c>
-      <c r="G18" s="210" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="212" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="189" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="190" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="191">
-        <v>44550.0</v>
-      </c>
-      <c r="E19" s="191">
-        <v>44554.0</v>
-      </c>
-      <c r="F19" s="213">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="214" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="215"/>
-      <c r="R19" s="215"/>
-      <c r="S19" s="215"/>
-      <c r="T19" s="215"/>
-      <c r="U19" s="215"/>
-      <c r="V19" s="215"/>
-      <c r="W19" s="215"/>
-      <c r="X19" s="215"/>
-      <c r="Y19" s="215"/>
-      <c r="Z19" s="215"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="189" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="190" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="191">
-        <v>44533.0</v>
-      </c>
-      <c r="E20" s="191">
-        <v>44540.0</v>
-      </c>
-      <c r="F20" s="213">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="216" t="s">
+      <c r="G24" s="220" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="218"/>
+      <c r="U24" s="218"/>
+      <c r="V24" s="218"/>
+      <c r="W24" s="218"/>
+      <c r="X24" s="218"/>
+      <c r="Y24" s="218"/>
+      <c r="Z24" s="218"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="204" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="205" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="206">
+        <v>44555.0</v>
+      </c>
+      <c r="E25" s="206">
+        <v>44559.0</v>
+      </c>
+      <c r="F25" s="207">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="220" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="218"/>
+      <c r="Q25" s="218"/>
+      <c r="R25" s="218"/>
+      <c r="S25" s="218"/>
+      <c r="T25" s="218"/>
+      <c r="U25" s="218"/>
+      <c r="V25" s="218"/>
+      <c r="W25" s="218"/>
+      <c r="X25" s="218"/>
+      <c r="Y25" s="218"/>
+      <c r="Z25" s="218"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="204" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="205" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="215"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="215"/>
-      <c r="R20" s="215"/>
-      <c r="S20" s="215"/>
-      <c r="T20" s="215"/>
-      <c r="U20" s="215"/>
-      <c r="V20" s="215"/>
-      <c r="W20" s="215"/>
-      <c r="X20" s="215"/>
-      <c r="Y20" s="215"/>
-      <c r="Z20" s="215"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="212" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="191">
-        <v>44537.0</v>
-      </c>
-      <c r="E21" s="191">
-        <v>44547.0</v>
-      </c>
-      <c r="F21" s="213">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="216" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="215"/>
-      <c r="R21" s="215"/>
-      <c r="S21" s="215"/>
-      <c r="T21" s="215"/>
-      <c r="U21" s="215"/>
-      <c r="V21" s="215"/>
-      <c r="W21" s="215"/>
-      <c r="X21" s="215"/>
-      <c r="Y21" s="215"/>
-      <c r="Z21" s="215"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="212" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="189" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="190" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="191">
-        <v>44540.0</v>
-      </c>
-      <c r="E22" s="191">
-        <v>44550.0</v>
-      </c>
-      <c r="F22" s="213">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="216" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="215"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="215"/>
-      <c r="N22" s="215"/>
-      <c r="O22" s="215"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="215"/>
-      <c r="R22" s="215"/>
-      <c r="S22" s="215"/>
-      <c r="T22" s="215"/>
-      <c r="U22" s="215"/>
-      <c r="V22" s="215"/>
-      <c r="W22" s="215"/>
-      <c r="X22" s="215"/>
-      <c r="Y22" s="215"/>
-      <c r="Z22" s="215"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="212" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="189" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="190" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="191">
-        <v>44543.0</v>
-      </c>
-      <c r="E23" s="191">
+      <c r="D26" s="206">
         <v>44559.0</v>
       </c>
-      <c r="F23" s="213">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="216" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="215"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
-      <c r="R23" s="215"/>
-      <c r="S23" s="215"/>
-      <c r="T23" s="215"/>
-      <c r="U23" s="215"/>
-      <c r="V23" s="215"/>
-      <c r="W23" s="215"/>
-      <c r="X23" s="215"/>
-      <c r="Y23" s="215"/>
-      <c r="Z23" s="215"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="201" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="202" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="203">
-        <v>44550.0</v>
-      </c>
-      <c r="E24" s="203">
+      <c r="E26" s="206">
         <v>44559.0</v>
       </c>
-      <c r="F24" s="204">
+      <c r="F26" s="207">
         <v>0.8</v>
       </c>
-      <c r="G24" s="217" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="215"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="215"/>
-      <c r="R24" s="215"/>
-      <c r="S24" s="215"/>
-      <c r="T24" s="215"/>
-      <c r="U24" s="215"/>
-      <c r="V24" s="215"/>
-      <c r="W24" s="215"/>
-      <c r="X24" s="215"/>
-      <c r="Y24" s="215"/>
-      <c r="Z24" s="215"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="209" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="201" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="202" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="203">
-        <v>44555.0</v>
-      </c>
-      <c r="E25" s="203">
-        <v>44559.0</v>
-      </c>
-      <c r="F25" s="204">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="217" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="215"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="215"/>
-      <c r="R25" s="215"/>
-      <c r="S25" s="215"/>
-      <c r="T25" s="215"/>
-      <c r="U25" s="215"/>
-      <c r="V25" s="215"/>
-      <c r="W25" s="215"/>
-      <c r="X25" s="215"/>
-      <c r="Y25" s="215"/>
-      <c r="Z25" s="215"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="209" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="201" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="202" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="203">
-        <v>44559.0</v>
-      </c>
-      <c r="E26" s="203">
-        <v>44559.0</v>
-      </c>
-      <c r="F26" s="204">
-        <v>0.8</v>
-      </c>
-      <c r="G26" s="217" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="215"/>
-      <c r="R26" s="215"/>
-      <c r="S26" s="215"/>
-      <c r="T26" s="215"/>
-      <c r="U26" s="215"/>
-      <c r="V26" s="215"/>
-      <c r="W26" s="215"/>
-      <c r="X26" s="215"/>
-      <c r="Y26" s="215"/>
-      <c r="Z26" s="215"/>
+      <c r="G26" s="220" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="218"/>
+      <c r="Q26" s="218"/>
+      <c r="R26" s="218"/>
+      <c r="S26" s="218"/>
+      <c r="T26" s="218"/>
+      <c r="U26" s="218"/>
+      <c r="V26" s="218"/>
+      <c r="W26" s="218"/>
+      <c r="X26" s="218"/>
+      <c r="Y26" s="218"/>
+      <c r="Z26" s="218"/>
     </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>

--- a/NAM3.xlsx
+++ b/NAM3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="220">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -76,7 +76,7 @@
     <t>OE4</t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
+    <t>Normalizacion</t>
   </si>
   <si>
     <t>Las tazas temporales RGB se procesan mediante la normalizacion de la media cero y la varianza unitaria, se desvirtuan utilizando un enfoque de suavidad y se filtran en paso de banda con un filtro Butterworth</t>
@@ -259,34 +259,37 @@
     <t>A4.1</t>
   </si>
   <si>
+    <t>Clasificacion de componentes</t>
+  </si>
+  <si>
+    <t>Recolectaremos todas las partes del diseño de nuestro software.</t>
+  </si>
+  <si>
+    <t>H4.1</t>
+  </si>
+  <si>
+    <t>Integracion</t>
+  </si>
+  <si>
+    <t>Todos los componentes seran unificados en un programa funcional.</t>
+  </si>
+  <si>
+    <t>A5.1</t>
+  </si>
+  <si>
     <t>Aplicar Crominancia a los superpixeles</t>
   </si>
   <si>
     <t>Dado que se obtuvieron las trazas RGB, estas son sometidas al metodo de crominancia. Este metodo aplica combinaciones lineales a los canales RGB , tras realizar este pre procesamiento , la crominancia arroja dos proyecciones RGB en dos vectores ortogonales.</t>
   </si>
   <si>
-    <t>H4.1</t>
-  </si>
-  <si>
-    <t>H4.2</t>
-  </si>
-  <si>
-    <t>A5.1</t>
-  </si>
-  <si>
-    <t>Clasificacion de componentes</t>
-  </si>
-  <si>
-    <t>Recolectaremos todas las partes del diseño de nuestro software.</t>
-  </si>
-  <si>
     <t>H5.1</t>
   </si>
   <si>
-    <t>Integracion</t>
-  </si>
-  <si>
-    <t>Todos los componentes seran unificados en un programa funcional.</t>
+    <t>RGB segmento</t>
+  </si>
+  <si>
+    <t>Tener un valor RGB para cada segmento</t>
   </si>
   <si>
     <t>A6.1</t>
@@ -371,9 +374,6 @@
     <t>O4</t>
   </si>
   <si>
-    <t>A4.2</t>
-  </si>
-  <si>
     <t>O5</t>
   </si>
   <si>
@@ -422,181 +422,157 @@
     <t>A.1.1</t>
   </si>
   <si>
-    <t>Carga del modelamiento</t>
-  </si>
-  <si>
     <t>Daniel, Phillipa</t>
   </si>
   <si>
     <t>A.1.2</t>
   </si>
   <si>
-    <t>Conversion de Imagenes</t>
-  </si>
-  <si>
     <t>Tomas,  Joaquin</t>
   </si>
   <si>
-    <t>A.1.3</t>
-  </si>
-  <si>
-    <t>Obtener prediccion</t>
+    <t>https://github.com/CodeGod21/proyecto-PDI/commit/2dd5e44e315251d11a78b5e9afa3c58d92bd9706</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>A.2.1</t>
+  </si>
+  <si>
+    <t>Joaquin, Daniel, Tomas, Phillipa</t>
+  </si>
+  <si>
+    <t>100%%</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/commit/c7efaecfafc9b873bdb6b0ef82957f8f7d3f900b</t>
+  </si>
+  <si>
+    <t>A.2.2</t>
   </si>
   <si>
     <t>Todos</t>
   </si>
   <si>
-    <t>A.1.4</t>
-  </si>
-  <si>
-    <t>Analisis de resultados</t>
+    <t>https://github.com/CodeGod21/proyecto-PDI/blob/master/step4.py</t>
+  </si>
+  <si>
+    <t>PR3</t>
+  </si>
+  <si>
+    <t>A.3.1</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/blob/master/slic_segment.m</t>
+  </si>
+  <si>
+    <t>A.3.2</t>
+  </si>
+  <si>
+    <t>Daniel, Joaquin, Tomas</t>
+  </si>
+  <si>
+    <t>PR4</t>
+  </si>
+  <si>
+    <t>A.4.1</t>
+  </si>
+  <si>
+    <t>Tomas, Phillipa, Joaquin</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/blob/master/estimate_rPPG.m</t>
+  </si>
+  <si>
+    <t>PR5</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/commit/067932ebe1dda52b36579b7d455a01a66d6bb382#diff-1a54c252e8251da3a523eff1323c8c50242f14100595a516499c60818359e132</t>
+  </si>
+  <si>
+    <t>A.5.1</t>
+  </si>
+  <si>
+    <t>PR6</t>
+  </si>
+  <si>
+    <t>A.6.1</t>
+  </si>
+  <si>
+    <t>PR7</t>
+  </si>
+  <si>
+    <t>A.7.1</t>
+  </si>
+  <si>
+    <t>Video Demostrativo del Avance.</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/blob/master/video1609493627.mp4</t>
+  </si>
+  <si>
+    <t>Manual de usuario</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/commit/39a3d89f333cf2b7df13b89555559369ad0bc693</t>
+  </si>
+  <si>
+    <t>Manual de instalacion</t>
+  </si>
+  <si>
+    <t>https://github.com/CodeGod21/proyecto-PDI/commit/ec7b887c8b0a362e10c5910d841f1cb4111795c0</t>
+  </si>
+  <si>
+    <t>Prototipo</t>
+  </si>
+  <si>
+    <t>Adquisición</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>Presión sanguinea</t>
+  </si>
+  <si>
+    <t>Daniel/Tomas/Phillipa/Joaquin</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>Tecnicas de analisis facial y procesamiento de datos</t>
+  </si>
+  <si>
+    <t>Daniel/Joaquin</t>
+  </si>
+  <si>
+    <t>Organización de reuniones</t>
+  </si>
+  <si>
+    <t>OR1</t>
+  </si>
+  <si>
+    <t>Reunion inicial</t>
+  </si>
+  <si>
+    <t>Joaquín</t>
+  </si>
+  <si>
+    <t>Encontrar un día para poder hacer reuniones semanales y poder definir los cimientos del proyecto</t>
+  </si>
+  <si>
+    <t>OR2</t>
+  </si>
+  <si>
+    <t>Tecnicas y presentación</t>
   </si>
   <si>
     <t>Phillipa</t>
-  </si>
-  <si>
-    <t>PR2</t>
-  </si>
-  <si>
-    <t>Extracción TSPs</t>
-  </si>
-  <si>
-    <t>A.2.1</t>
-  </si>
-  <si>
-    <t>extracción de TSP por frame en matlab</t>
-  </si>
-  <si>
-    <t>Joaquin, Daniel, Tomas, Phillipa</t>
-  </si>
-  <si>
-    <t>100%%</t>
-  </si>
-  <si>
-    <t>https://github.com/CodeGod21/proyecto-PDI/commit/c7efaecfafc9b873bdb6b0ef82957f8f7d3f900b</t>
-  </si>
-  <si>
-    <t>A.2.2</t>
-  </si>
-  <si>
-    <t>Envio de frames e instanciación por python.</t>
-  </si>
-  <si>
-    <t>PR3</t>
-  </si>
-  <si>
-    <t>Procesamiento de pulsaciones sanguienas</t>
-  </si>
-  <si>
-    <t>A.3.1</t>
-  </si>
-  <si>
-    <t>Definir los parametros previos al procesamiento de la señal cardiaca</t>
-  </si>
-  <si>
-    <t>A.3.2</t>
-  </si>
-  <si>
-    <t>Realizacion de el procesamiento de la señal cardiaca</t>
-  </si>
-  <si>
-    <t>Daniel, Joaquin</t>
-  </si>
-  <si>
-    <t>PR4</t>
-  </si>
-  <si>
-    <t>Obtención de BP resultante</t>
-  </si>
-  <si>
-    <t>A.4.1</t>
-  </si>
-  <si>
-    <t>Preparacion parametro para predicción de PB</t>
-  </si>
-  <si>
-    <t>Tomas, Phillipa</t>
-  </si>
-  <si>
-    <t>A.4.2</t>
-  </si>
-  <si>
-    <t>Entrenamiento de modelos</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>A.4.3</t>
-  </si>
-  <si>
-    <t>Testeo del rendmiento del modelo de prediccion de PB</t>
-  </si>
-  <si>
-    <t>PR5</t>
-  </si>
-  <si>
-    <t>Sotware integrado</t>
-  </si>
-  <si>
-    <t>A.5.1</t>
-  </si>
-  <si>
-    <t>Joaquin</t>
-  </si>
-  <si>
-    <t>PR6</t>
-  </si>
-  <si>
-    <t>A.6.1</t>
-  </si>
-  <si>
-    <t>Obtencion del dataset</t>
-  </si>
-  <si>
-    <t>Video Demostrativo del Avance.</t>
-  </si>
-  <si>
-    <t>Adquisición</t>
-  </si>
-  <si>
-    <t>AC1</t>
-  </si>
-  <si>
-    <t>Presión sanguinea</t>
-  </si>
-  <si>
-    <t>Daniel/Tomas/Phillipa/Joaquin</t>
-  </si>
-  <si>
-    <t>AC2</t>
-  </si>
-  <si>
-    <t>Tecnicas de analisis facial y procesamiento de datos</t>
-  </si>
-  <si>
-    <t>Daniel/Joaquin</t>
-  </si>
-  <si>
-    <t>Organización de reuniones</t>
-  </si>
-  <si>
-    <t>OR1</t>
-  </si>
-  <si>
-    <t>Reunion inicial</t>
-  </si>
-  <si>
-    <t>Joaquín</t>
-  </si>
-  <si>
-    <t>Encontrar un día para poder hacer reuniones semanales y poder definir los cimientos del proyecto</t>
-  </si>
-  <si>
-    <t>OR2</t>
-  </si>
-  <si>
-    <t>Tecnicas y presentación</t>
   </si>
   <si>
     <t>Definir tecnicas de medición para la presion sanguinea y realizar la presentación</t>
@@ -705,12 +681,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MMM\ D&quot;, &quot;YYYY"/>
-    <numFmt numFmtId="165" formatCode="mmm d, yyyy"/>
-    <numFmt numFmtId="166" formatCode="d mmm, yyyy"/>
+    <numFmt numFmtId="165" formatCode="d mmm, yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -848,23 +823,17 @@
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <u/>
       <sz val="8.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -878,6 +847,12 @@
     <font>
       <sz val="9.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -899,6 +874,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="10.0"/>
@@ -908,6 +889,12 @@
     <font>
       <b/>
       <i/>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1225,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1389,22 +1376,25 @@
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1565,9 +1555,6 @@
     <xf borderId="12" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1589,9 +1576,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1610,134 +1594,113 @@
     <xf borderId="12" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="12" fillId="4" fontId="21" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1751,12 +1714,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1772,7 +1735,7 @@
     <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="9" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1784,7 +1747,7 @@
     <xf borderId="12" fillId="9" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="9" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="9" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="9" fontId="21" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1799,7 +1762,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="9" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1808,7 +1771,7 @@
     <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1823,7 +1786,7 @@
     <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2726,7 +2689,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" ht="83.25" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
@@ -3305,21 +3268,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" ht="60.75" customHeight="1">
+    <row r="63" ht="69.0" customHeight="1">
       <c r="A63" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="59"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="46"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="52" t="s">
@@ -3343,15 +3306,17 @@
       <c r="A67" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="46"/>
+      <c r="B67" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="61" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="47" t="s">
-        <v>84</v>
-      </c>
+      <c r="A68" s="47"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="46"/>
+      <c r="C68" s="63"/>
     </row>
     <row r="69" ht="12.75" customHeight="1"/>
     <row r="70" ht="12.75" customHeight="1"/>
@@ -3373,26 +3338,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" ht="24.75" customHeight="1">
+    <row r="73" ht="63.75" customHeight="1">
       <c r="A73" s="52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="63" t="s">
         <v>87</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="52"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
+      <c r="C74" s="59"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="61"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="65"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="52" t="s">
@@ -3414,13 +3379,13 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="B78" s="62" t="s">
         <v>90</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -3451,24 +3416,24 @@
     </row>
     <row r="85" ht="48.0" customHeight="1">
       <c r="A85" s="52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="63" t="s">
         <v>93</v>
       </c>
+      <c r="C85" s="59" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="59"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="58"/>
-      <c r="C86" s="64"/>
+      <c r="C86" s="61"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="59"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="61"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="65"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="52" t="s">
@@ -3490,18 +3455,18 @@
     </row>
     <row r="90" ht="29.25" customHeight="1">
       <c r="A90" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="65" t="s">
         <v>95</v>
       </c>
+      <c r="B90" s="66" t="s">
+        <v>96</v>
+      </c>
       <c r="C90" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="47"/>
-      <c r="B91" s="62"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="46"/>
     </row>
     <row r="92" ht="12.75" customHeight="1"/>
@@ -3525,24 +3490,24 @@
     </row>
     <row r="95" ht="35.25" customHeight="1">
       <c r="A95" s="52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="63" t="s">
         <v>99</v>
       </c>
+      <c r="C95" s="59" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="59"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
+      <c r="C96" s="61"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="59"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="61"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="65"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="52" t="s">
@@ -3561,19 +3526,19 @@
       <c r="C99" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="66" t="s">
-        <v>100</v>
+      <c r="D99" s="67" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="100" ht="33.0" customHeight="1">
       <c r="A100" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="62" t="s">
         <v>102</v>
       </c>
+      <c r="B100" s="63" t="s">
+        <v>103</v>
+      </c>
       <c r="C100" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1"/>
@@ -4530,8 +4495,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69">
         <v>2021.0</v>
       </c>
       <c r="C1" s="7"/>
@@ -4545,1155 +4510,1151 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="F2" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="J2" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="E3" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="H3" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="72" t="s">
+      <c r="I3" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="K3" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="L3" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
+      <c r="M3" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
+      <c r="A4" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
+      <c r="A6" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="N12" s="89"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
+      <c r="A13" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
     </row>
     <row r="16">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
     </row>
     <row r="17">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
     </row>
     <row r="18">
-      <c r="A18" s="85"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
     </row>
     <row r="19">
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
     </row>
     <row r="20">
-      <c r="A20" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
+      <c r="A20" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
     </row>
     <row r="21">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="69"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="70"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="69"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="70"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="69"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
+      <c r="A25" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="70"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="69"/>
+      <c r="A26" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="70"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="69"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="70"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="69"/>
+      <c r="A28" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="70"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="76"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="82"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="83"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="76"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="84"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="81"/>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="108"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="109"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="75"/>
+      <c r="A37" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="76"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="75"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="76"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="109"/>
+      <c r="A39" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
+      <c r="A42" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="82"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="83"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="97"/>
+      <c r="A44" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="98"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="101"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="110"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="111"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="109"/>
+      <c r="A47" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="110"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="98" t="s">
+      <c r="A48" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="82"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="83"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="111"/>
+      <c r="A49" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="112"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="112"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="101"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="103"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="103"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="101"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="103"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="113"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="102"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="103"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="113"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="103"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="102"/>
-      <c r="M56" s="102"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
+      <c r="L56" s="103"/>
+      <c r="M56" s="103"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="101"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="102"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="103"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="101"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="102"/>
-      <c r="L58" s="102"/>
-      <c r="M58" s="102"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="103"/>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -6670,7 +6631,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="12.71"/>
     <col customWidth="1" min="2" max="2" width="36.14"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
+    <col customWidth="1" min="3" max="3" width="16.71"/>
     <col customWidth="1" min="4" max="5" width="13.14"/>
     <col customWidth="1" min="6" max="6" width="13.43"/>
     <col customWidth="1" min="7" max="7" width="14.43"/>
@@ -6687,57 +6648,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="43.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>125</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
     </row>
     <row r="2" ht="51.75" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="124"/>
@@ -6771,28 +6732,28 @@
       <c r="AA2" s="130"/>
     </row>
     <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="133">
+      <c r="D3" s="132">
         <v>44511.0</v>
       </c>
-      <c r="E3" s="133">
+      <c r="E3" s="132">
         <v>44511.0</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="133">
         <v>1.0</v>
       </c>
-      <c r="G3" s="135">
+      <c r="G3" s="134">
         <v>1.0</v>
       </c>
-      <c r="H3" s="136"/>
+      <c r="H3" s="135"/>
       <c r="I3" s="124"/>
       <c r="J3" s="129"/>
       <c r="K3" s="3"/>
@@ -6814,28 +6775,30 @@
       <c r="AA3" s="130"/>
     </row>
     <row r="4" ht="29.25" customHeight="1">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="D4" s="132">
+        <v>44511.0</v>
+      </c>
+      <c r="E4" s="132">
+        <v>44511.0</v>
+      </c>
+      <c r="F4" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="133">
-        <v>44511.0</v>
-      </c>
-      <c r="E4" s="133">
-        <v>44511.0</v>
-      </c>
-      <c r="F4" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="135">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="136"/>
       <c r="I4" s="124"/>
       <c r="J4" s="129"/>
       <c r="K4" s="3"/>
@@ -6856,29 +6819,21 @@
       <c r="Z4" s="130"/>
       <c r="AA4" s="130"/>
     </row>
-    <row r="5" ht="38.25" customHeight="1">
+    <row r="5" ht="29.25" customHeight="1">
       <c r="A5" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="133">
-        <v>44515.0</v>
-      </c>
-      <c r="E5" s="133">
-        <v>44518.0</v>
-      </c>
-      <c r="F5" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="135">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="139"/>
+        <v>139</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="124"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="139" t="s">
+        <v>138</v>
+      </c>
       <c r="I5" s="124"/>
       <c r="J5" s="129"/>
       <c r="K5" s="3"/>
@@ -6899,29 +6854,31 @@
       <c r="Z5" s="130"/>
       <c r="AA5" s="130"/>
     </row>
-    <row r="6" ht="33.75" customHeight="1">
-      <c r="A6" s="140" t="s">
+    <row r="6" ht="39.75" customHeight="1">
+      <c r="A6" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="132">
+        <v>44521.0</v>
+      </c>
+      <c r="E6" s="132">
+        <v>44523.0</v>
+      </c>
+      <c r="F6" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="141">
-        <v>44518.0</v>
-      </c>
-      <c r="E6" s="133">
-        <v>44518.0</v>
-      </c>
-      <c r="F6" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="135">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="142"/>
       <c r="I6" s="124"/>
       <c r="J6" s="129"/>
       <c r="K6" s="3"/>
@@ -6942,19 +6899,31 @@
       <c r="Z6" s="130"/>
       <c r="AA6" s="130"/>
     </row>
-    <row r="7" ht="29.25" customHeight="1">
-      <c r="A7" s="140" t="s">
+    <row r="7" ht="47.25" customHeight="1">
+      <c r="A7" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="132">
+        <v>44525.0</v>
+      </c>
+      <c r="E7" s="132">
+        <v>44525.0</v>
+      </c>
+      <c r="F7" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="143" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="142"/>
       <c r="I7" s="124"/>
       <c r="J7" s="129"/>
       <c r="K7" s="3"/>
@@ -6975,31 +6944,19 @@
       <c r="Z7" s="130"/>
       <c r="AA7" s="130"/>
     </row>
-    <row r="8" ht="39.75" customHeight="1">
-      <c r="A8" s="137" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="133">
-        <v>44521.0</v>
-      </c>
-      <c r="E8" s="133">
-        <v>44523.0</v>
-      </c>
-      <c r="F8" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>152</v>
-      </c>
+    <row r="8" ht="24.0" customHeight="1">
+      <c r="A8" s="141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="135"/>
       <c r="I8" s="124"/>
       <c r="J8" s="129"/>
       <c r="K8" s="3"/>
@@ -7020,29 +6977,31 @@
       <c r="Z8" s="130"/>
       <c r="AA8" s="130"/>
     </row>
-    <row r="9" ht="47.25" customHeight="1">
-      <c r="A9" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="138" t="s">
-        <v>154</v>
+    <row r="9" ht="39.0" customHeight="1">
+      <c r="A9" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="133">
-        <v>44525.0</v>
-      </c>
-      <c r="E9" s="133">
-        <v>44525.0</v>
-      </c>
-      <c r="F9" s="134">
+        <v>145</v>
+      </c>
+      <c r="D9" s="144">
+        <v>44529.0</v>
+      </c>
+      <c r="E9" s="145">
+        <v>44530.0</v>
+      </c>
+      <c r="F9" s="133">
         <v>1.0</v>
       </c>
-      <c r="G9" s="145" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="136"/>
+      <c r="G9" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>149</v>
+      </c>
       <c r="I9" s="124"/>
       <c r="J9" s="129"/>
       <c r="K9" s="3"/>
@@ -7063,19 +7022,31 @@
       <c r="Z9" s="130"/>
       <c r="AA9" s="130"/>
     </row>
-    <row r="10" ht="24.0" customHeight="1">
-      <c r="A10" s="146" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="136"/>
+    <row r="10" ht="30.75" customHeight="1">
+      <c r="A10" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="132">
+        <v>44532.0</v>
+      </c>
+      <c r="E10" s="132">
+        <v>44543.0</v>
+      </c>
+      <c r="F10" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>143</v>
+      </c>
       <c r="I10" s="124"/>
       <c r="J10" s="129"/>
       <c r="K10" s="3"/>
@@ -7096,29 +7067,19 @@
       <c r="Z10" s="130"/>
       <c r="AA10" s="130"/>
     </row>
-    <row r="11" ht="39.0" customHeight="1">
-      <c r="A11" s="140" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="149">
-        <v>44529.0</v>
-      </c>
-      <c r="E11" s="150">
-        <v>44530.0</v>
-      </c>
-      <c r="F11" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="135">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="136"/>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="124"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="124"/>
       <c r="J11" s="129"/>
       <c r="K11" s="3"/>
@@ -7139,30 +7100,32 @@
       <c r="Z11" s="130"/>
       <c r="AA11" s="130"/>
     </row>
-    <row r="12" ht="30.75" customHeight="1">
-      <c r="A12" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="131" t="s">
-        <v>160</v>
+    <row r="12" ht="39.0" customHeight="1">
+      <c r="A12" s="148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="133">
-        <v>44532.0</v>
-      </c>
-      <c r="E12" s="133">
+        <v>154</v>
+      </c>
+      <c r="D12" s="149">
         <v>44543.0</v>
       </c>
-      <c r="F12" s="134">
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="135">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="124"/>
+      <c r="E12" s="149">
+        <v>44544.0</v>
+      </c>
+      <c r="F12" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="151">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="153"/>
       <c r="J12" s="129"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -7182,22 +7145,17 @@
       <c r="Z12" s="130"/>
       <c r="AA12" s="130"/>
     </row>
-    <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="124"/>
+    <row r="13" ht="39.0" customHeight="1">
+      <c r="A13" s="148"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="151"/>
+      <c r="I13" s="155"/>
       <c r="J13" s="129"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="156"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="130"/>
@@ -7215,30 +7173,22 @@
       <c r="Z13" s="130"/>
       <c r="AA13" s="130"/>
     </row>
-    <row r="14" ht="39.0" customHeight="1">
-      <c r="A14" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="152" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="153">
-        <v>44543.0</v>
-      </c>
-      <c r="E14" s="153">
-        <v>44544.0</v>
-      </c>
-      <c r="F14" s="154">
-        <v>100.0</v>
-      </c>
-      <c r="G14" s="155">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="156"/>
-      <c r="I14" s="157"/>
+    <row r="14" ht="30.0" customHeight="1">
+      <c r="A14" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="160"/>
       <c r="J14" s="129"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -7258,31 +7208,31 @@
       <c r="Z14" s="130"/>
       <c r="AA14" s="130"/>
     </row>
-    <row r="15">
-      <c r="A15" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="152" t="s">
-        <v>168</v>
+    <row r="15" ht="30.0" customHeight="1">
+      <c r="A15" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="153">
-        <v>44544.0</v>
-      </c>
-      <c r="E15" s="153">
+        <v>145</v>
+      </c>
+      <c r="D15" s="149">
         <v>44548.0</v>
       </c>
-      <c r="F15" s="158">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="155">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="159"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="129"/>
+      <c r="E15" s="149">
+        <v>44550.0</v>
+      </c>
+      <c r="F15" s="151">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="161"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="162"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -7301,32 +7251,22 @@
       <c r="Z15" s="130"/>
       <c r="AA15" s="130"/>
     </row>
-    <row r="16" ht="39.0" customHeight="1">
-      <c r="A16" s="151" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="152" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="153">
-        <v>44548.0</v>
-      </c>
-      <c r="E16" s="153">
-        <v>44549.0</v>
-      </c>
-      <c r="F16" s="158">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="155">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="161"/>
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="A16" s="136" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="124"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="155"/>
       <c r="J16" s="129"/>
-      <c r="K16" s="162"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="130"/>
@@ -7345,19 +7285,29 @@
       <c r="AA16" s="130"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="166"/>
+      <c r="A17" s="148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="149">
+        <v>44545.0</v>
+      </c>
+      <c r="E17" s="149">
+        <v>44548.0</v>
+      </c>
+      <c r="F17" s="151">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="151">
+        <v>0.7</v>
+      </c>
+      <c r="H17" s="161"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="129"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -7377,31 +7327,15 @@
       <c r="Z17" s="130"/>
       <c r="AA17" s="130"/>
     </row>
-    <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="153">
-        <v>44548.0</v>
-      </c>
-      <c r="E18" s="153">
-        <v>44550.0</v>
-      </c>
-      <c r="F18" s="155">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="155">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="159"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="167"/>
+    <row r="18" ht="50.25" customHeight="1">
+      <c r="A18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="164"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -7421,19 +7355,28 @@
       <c r="AA18" s="130"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="168" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="161"/>
+      <c r="A19" s="148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="149">
+        <v>44556.0</v>
+      </c>
+      <c r="E19" s="149">
+        <v>44558.0</v>
+      </c>
+      <c r="F19" s="166">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="166">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="155"/>
       <c r="J19" s="129"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -7454,29 +7397,29 @@
       <c r="AA19" s="130"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="151" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="153">
-        <v>44545.0</v>
-      </c>
-      <c r="E20" s="153">
-        <v>44548.0</v>
-      </c>
-      <c r="F20" s="155">
+      <c r="A20" s="167"/>
+      <c r="B20" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="149">
+        <v>44557.0</v>
+      </c>
+      <c r="E20" s="149">
+        <v>44559.0</v>
+      </c>
+      <c r="F20" s="166">
         <v>1.0</v>
       </c>
-      <c r="G20" s="155">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="159"/>
-      <c r="I20" s="157"/>
+      <c r="G20" s="166">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="155"/>
       <c r="J20" s="129"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -7497,17 +7440,29 @@
       <c r="AA20" s="130"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="170" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="154" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="149">
+        <v>44557.0</v>
+      </c>
+      <c r="E21" s="149">
+        <v>44559.0</v>
+      </c>
+      <c r="F21" s="166">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="166">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="153"/>
       <c r="J21" s="129"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -7527,18 +7482,32 @@
       <c r="Z21" s="130"/>
       <c r="AA21" s="130"/>
     </row>
-    <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="3"/>
+    <row r="22" ht="75.0" customHeight="1">
+      <c r="A22" s="167"/>
+      <c r="B22" s="154" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="149">
+        <v>44557.0</v>
+      </c>
+      <c r="E22" s="149">
+        <v>44559.0</v>
+      </c>
+      <c r="F22" s="166">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="166">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="155"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="156"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="130"/>
@@ -7556,16 +7525,28 @@
       <c r="Z22" s="130"/>
       <c r="AA22" s="130"/>
     </row>
-    <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="176"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="161"/>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" s="170"/>
+      <c r="B23" s="154" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="149">
+        <v>44559.0</v>
+      </c>
+      <c r="E23" s="149">
+        <v>44559.0</v>
+      </c>
+      <c r="F23" s="171">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="172" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="161"/>
+      <c r="I23" s="153"/>
       <c r="J23" s="129"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -7585,16 +7566,16 @@
       <c r="Z23" s="130"/>
       <c r="AA23" s="130"/>
     </row>
-    <row r="24" ht="30.0" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="159"/>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="173"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="124"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="153"/>
       <c r="J24" s="129"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -7614,18 +7595,18 @@
       <c r="Z24" s="130"/>
       <c r="AA24" s="130"/>
     </row>
-    <row r="25" ht="75.0" customHeight="1">
-      <c r="A25" s="176"/>
-      <c r="B25" s="159"/>
+    <row r="25" ht="16.5" customHeight="1">
+      <c r="A25" s="173"/>
+      <c r="B25" s="161"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="162"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="130"/>
@@ -7643,93 +7624,9 @@
       <c r="Z25" s="130"/>
       <c r="AA25" s="130"/>
     </row>
-    <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="177"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="181"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="181"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="130"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-    </row>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
@@ -7927,9 +7824,9 @@
     <row r="223" ht="14.25" customHeight="1"/>
     <row r="224" ht="14.25" customHeight="1"/>
     <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
@@ -8700,21 +8597,28 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H8"/>
+    <hyperlink r:id="rId2" ref="H4"/>
+    <hyperlink r:id="rId3" ref="H5"/>
+    <hyperlink r:id="rId4" ref="H6"/>
+    <hyperlink r:id="rId5" ref="H7"/>
+    <hyperlink r:id="rId6" ref="H9"/>
+    <hyperlink r:id="rId7" ref="H10"/>
+    <hyperlink r:id="rId8" ref="H12"/>
+    <hyperlink r:id="rId9" location="diff-1a54c252e8251da3a523eff1323c8c50242f14100595a516499c60818359e132" ref="H14"/>
+    <hyperlink r:id="rId10" ref="H20"/>
+    <hyperlink r:id="rId11" ref="H21"/>
+    <hyperlink r:id="rId12" ref="H22"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -8747,860 +8651,846 @@
       <c r="A1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>125</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="J1" s="184"/>
+      <c r="H1" s="175"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="129"/>
       <c r="L1" s="129"/>
       <c r="M1" s="129"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="185" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="A2" s="177" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
       <c r="G2" s="124"/>
-      <c r="H2" s="190"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="129"/>
-      <c r="J2" s="184"/>
+      <c r="J2" s="176"/>
       <c r="K2" s="129"/>
       <c r="L2" s="129"/>
       <c r="M2" s="129"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="184"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="191" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="192" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="194">
+      <c r="A3" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="184" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="186">
         <v>44459.0</v>
       </c>
-      <c r="E3" s="194">
+      <c r="E3" s="186">
         <v>44472.0</v>
       </c>
-      <c r="F3" s="195">
+      <c r="F3" s="187">
         <v>1.0</v>
       </c>
       <c r="G3" s="124"/>
-      <c r="H3" s="190"/>
+      <c r="H3" s="182"/>
       <c r="I3" s="129"/>
-      <c r="J3" s="184"/>
+      <c r="J3" s="176"/>
       <c r="K3" s="129"/>
       <c r="L3" s="129"/>
       <c r="M3" s="129"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="184"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
     </row>
     <row r="4" ht="24.75" customHeight="1">
-      <c r="A4" s="196" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="192" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="193" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="194">
+      <c r="A4" s="188" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="186">
         <v>44473.0</v>
       </c>
-      <c r="E4" s="194">
+      <c r="E4" s="186">
         <v>44501.0</v>
       </c>
-      <c r="F4" s="197">
+      <c r="F4" s="189">
         <v>1.0</v>
       </c>
-      <c r="G4" s="157"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="200"/>
-      <c r="Y4" s="200"/>
-      <c r="Z4" s="200"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="192"/>
+      <c r="U4" s="192"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="192"/>
+      <c r="Y4" s="192"/>
+      <c r="Z4" s="192"/>
     </row>
     <row r="5">
+      <c r="A5" s="177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="190"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="184"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="176"/>
       <c r="K5" s="129"/>
       <c r="L5" s="129"/>
       <c r="M5" s="129"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" s="183" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="184" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="185" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="186">
+        <v>44459.0</v>
+      </c>
+      <c r="E6" s="186">
+        <v>44463.0</v>
+      </c>
+      <c r="F6" s="194">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>182</v>
+      </c>
       <c r="H6" s="190"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="184"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="176"/>
       <c r="K6" s="129"/>
       <c r="L6" s="129"/>
       <c r="M6" s="129"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="184"/>
-      <c r="Y6" s="184"/>
-      <c r="Z6" s="184"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="176"/>
     </row>
     <row r="7" ht="25.5" customHeight="1">
-      <c r="H7" s="190"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="184"/>
+      <c r="A7" s="183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="186">
+        <v>44491.0</v>
+      </c>
+      <c r="E7" s="186">
+        <v>44505.0</v>
+      </c>
+      <c r="F7" s="194">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="176"/>
       <c r="K7" s="129"/>
       <c r="L7" s="129"/>
       <c r="M7" s="129"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="184"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="176"/>
+      <c r="Z7" s="176"/>
     </row>
     <row r="8">
-      <c r="H8" s="190"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="184"/>
+      <c r="A8" s="195" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="196" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="197" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="198">
+        <v>44508.0</v>
+      </c>
+      <c r="E8" s="198">
+        <v>44512.0</v>
+      </c>
+      <c r="F8" s="199">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="176"/>
       <c r="K8" s="129"/>
       <c r="L8" s="129"/>
       <c r="M8" s="129"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="H9" s="198"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
+      <c r="A9" s="200" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="201" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="148" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="149">
+        <v>44522.0</v>
+      </c>
+      <c r="E9" s="149">
+        <v>44284.0</v>
+      </c>
+      <c r="F9" s="202">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="192"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="192"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="192"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="H10" s="198"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
-      <c r="U10" s="200"/>
-      <c r="V10" s="200"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="200"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="200"/>
+      <c r="A10" s="204" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="197" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="198">
+        <v>44533.0</v>
+      </c>
+      <c r="E10" s="198">
+        <v>44540.0</v>
+      </c>
+      <c r="F10" s="199">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="205" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="192"/>
+      <c r="S10" s="192"/>
+      <c r="T10" s="192"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="192"/>
+      <c r="Z10" s="192"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="H11" s="198"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="200"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
+      <c r="A11" s="204" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="197" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="198">
+        <v>44543.0</v>
+      </c>
+      <c r="E11" s="198">
+        <v>44547.0</v>
+      </c>
+      <c r="F11" s="199">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="205" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="192"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="185" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="201"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="200"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
+      <c r="A12" s="207" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="184" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="185" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="186">
+        <v>44550.0</v>
+      </c>
+      <c r="E12" s="186">
+        <v>44554.0</v>
+      </c>
+      <c r="F12" s="208">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="209" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="192"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="192"/>
+      <c r="R12" s="192"/>
+      <c r="S12" s="192"/>
+      <c r="T12" s="192"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="192"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="191" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="192" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="193" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="194">
-        <v>44459.0</v>
-      </c>
-      <c r="E13" s="194">
-        <v>44463.0</v>
-      </c>
-      <c r="F13" s="202">
+      <c r="A13" s="207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="185" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="186">
+        <v>44533.0</v>
+      </c>
+      <c r="E13" s="186">
+        <v>44540.0</v>
+      </c>
+      <c r="F13" s="208">
         <v>1.0</v>
       </c>
-      <c r="G13" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="198"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="200"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
-      <c r="T13" s="200"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="200"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="200"/>
-      <c r="Z13" s="200"/>
+      <c r="G13" s="211" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="192"/>
+      <c r="S13" s="192"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="192"/>
+      <c r="Z13" s="192"/>
     </row>
     <row r="14">
-      <c r="A14" s="191" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="192" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="193" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="194">
-        <v>44491.0</v>
-      </c>
-      <c r="E14" s="194">
-        <v>44505.0</v>
-      </c>
-      <c r="F14" s="202">
+      <c r="A14" s="207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="185" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="186">
+        <v>44537.0</v>
+      </c>
+      <c r="E14" s="186">
+        <v>44547.0</v>
+      </c>
+      <c r="F14" s="208">
         <v>1.0</v>
       </c>
-      <c r="G14" s="46" t="s">
-        <v>194</v>
-      </c>
+      <c r="G14" s="211" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
     </row>
     <row r="15">
-      <c r="A15" s="203" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="205" t="s">
+      <c r="A15" s="207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="185" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="186">
+        <v>44540.0</v>
+      </c>
+      <c r="E15" s="186">
+        <v>44550.0</v>
+      </c>
+      <c r="F15" s="208">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="211" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="184" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="185" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="186">
+        <v>44543.0</v>
+      </c>
+      <c r="E16" s="186">
+        <v>44559.0</v>
+      </c>
+      <c r="F16" s="208">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="211" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="204" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="196" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="197" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="198">
+        <v>44550.0</v>
+      </c>
+      <c r="E17" s="198">
+        <v>44559.0</v>
+      </c>
+      <c r="F17" s="199">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="212" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
+      <c r="L17" s="206"/>
+      <c r="M17" s="206"/>
+      <c r="N17" s="206"/>
+      <c r="O17" s="206"/>
+      <c r="P17" s="206"/>
+      <c r="Q17" s="206"/>
+      <c r="R17" s="206"/>
+      <c r="S17" s="206"/>
+      <c r="T17" s="206"/>
+      <c r="U17" s="206"/>
+      <c r="V17" s="206"/>
+      <c r="W17" s="206"/>
+      <c r="X17" s="206"/>
+      <c r="Y17" s="206"/>
+      <c r="Z17" s="206"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="204" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="196" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="206">
-        <v>44508.0</v>
-      </c>
-      <c r="E15" s="206">
-        <v>44512.0</v>
-      </c>
-      <c r="F15" s="207">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="208" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="151" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="153">
-        <v>44522.0</v>
-      </c>
-      <c r="E16" s="153">
-        <v>44284.0</v>
-      </c>
-      <c r="F16" s="210">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="211" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="212" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="204" t="s">
+      <c r="D18" s="198">
+        <v>44555.0</v>
+      </c>
+      <c r="E18" s="198">
+        <v>44559.0</v>
+      </c>
+      <c r="F18" s="199">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="212" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="206"/>
+      <c r="N18" s="206"/>
+      <c r="O18" s="206"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="206"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="206"/>
+      <c r="T18" s="206"/>
+      <c r="U18" s="206"/>
+      <c r="V18" s="206"/>
+      <c r="W18" s="206"/>
+      <c r="X18" s="206"/>
+      <c r="Y18" s="206"/>
+      <c r="Z18" s="206"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="204" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="196" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="205" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="206">
-        <v>44533.0</v>
-      </c>
-      <c r="E17" s="206">
-        <v>44540.0</v>
-      </c>
-      <c r="F17" s="207">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="213" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="214"/>
-      <c r="Q17" s="214"/>
-      <c r="R17" s="214"/>
-      <c r="S17" s="214"/>
-      <c r="T17" s="214"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="212" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="204" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="205" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="206">
-        <v>44543.0</v>
-      </c>
-      <c r="E18" s="206">
-        <v>44547.0</v>
-      </c>
-      <c r="F18" s="207">
+      <c r="D19" s="198">
+        <v>44559.0</v>
+      </c>
+      <c r="E19" s="198">
+        <v>44559.0</v>
+      </c>
+      <c r="F19" s="199">
         <v>0.8</v>
       </c>
-      <c r="G18" s="213" t="s">
-        <v>210</v>
-      </c>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="214"/>
-      <c r="Q18" s="214"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="215" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="192" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="193" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="194">
-        <v>44550.0</v>
-      </c>
-      <c r="E19" s="194">
-        <v>44554.0</v>
-      </c>
-      <c r="F19" s="216">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="217" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="218"/>
-      <c r="S19" s="218"/>
-      <c r="T19" s="218"/>
-      <c r="U19" s="218"/>
-      <c r="V19" s="218"/>
-      <c r="W19" s="218"/>
-      <c r="X19" s="218"/>
-      <c r="Y19" s="218"/>
-      <c r="Z19" s="218"/>
+      <c r="G19" s="212" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="210"/>
+      <c r="N19" s="210"/>
+      <c r="O19" s="210"/>
+      <c r="P19" s="210"/>
+      <c r="Q19" s="210"/>
+      <c r="R19" s="210"/>
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="215" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="192" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="193" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="194">
-        <v>44533.0</v>
-      </c>
-      <c r="E20" s="194">
-        <v>44540.0</v>
-      </c>
-      <c r="F20" s="216">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="219" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="218"/>
-      <c r="T20" s="218"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="218"/>
-      <c r="W20" s="218"/>
-      <c r="X20" s="218"/>
-      <c r="Y20" s="218"/>
-      <c r="Z20" s="218"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="210"/>
+      <c r="Q20" s="210"/>
+      <c r="R20" s="210"/>
+      <c r="S20" s="210"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="210"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="210"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="215" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="192" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="193" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="194">
-        <v>44537.0</v>
-      </c>
-      <c r="E21" s="194">
-        <v>44547.0</v>
-      </c>
-      <c r="F21" s="216">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="219" t="s">
-        <v>218</v>
-      </c>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
-      <c r="T21" s="218"/>
-      <c r="U21" s="218"/>
-      <c r="V21" s="218"/>
-      <c r="W21" s="218"/>
-      <c r="X21" s="218"/>
-      <c r="Y21" s="218"/>
-      <c r="Z21" s="218"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="210"/>
+      <c r="N21" s="210"/>
+      <c r="O21" s="210"/>
+      <c r="P21" s="210"/>
+      <c r="Q21" s="210"/>
+      <c r="R21" s="210"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="210"/>
+      <c r="U21" s="210"/>
+      <c r="V21" s="210"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="210"/>
+      <c r="Y21" s="210"/>
+      <c r="Z21" s="210"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="215" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="192" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="193" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="194">
-        <v>44540.0</v>
-      </c>
-      <c r="E22" s="194">
-        <v>44550.0</v>
-      </c>
-      <c r="F22" s="216">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="219" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
-      <c r="W22" s="218"/>
-      <c r="X22" s="218"/>
-      <c r="Y22" s="218"/>
-      <c r="Z22" s="218"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="210"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="210"/>
+      <c r="T22" s="210"/>
+      <c r="U22" s="210"/>
+      <c r="V22" s="210"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
+      <c r="Z22" s="210"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="215" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="192" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="193" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="194">
-        <v>44543.0</v>
-      </c>
-      <c r="E23" s="194">
-        <v>44559.0</v>
-      </c>
-      <c r="F23" s="216">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="219" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="218"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="218"/>
-      <c r="S23" s="218"/>
-      <c r="T23" s="218"/>
-      <c r="U23" s="218"/>
-      <c r="V23" s="218"/>
-      <c r="W23" s="218"/>
-      <c r="X23" s="218"/>
-      <c r="Y23" s="218"/>
-      <c r="Z23" s="218"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="210"/>
+      <c r="O23" s="210"/>
+      <c r="P23" s="210"/>
+      <c r="Q23" s="210"/>
+      <c r="R23" s="210"/>
+      <c r="S23" s="210"/>
+      <c r="T23" s="210"/>
+      <c r="U23" s="210"/>
+      <c r="V23" s="210"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="210"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="212" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="204" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="205" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="206">
-        <v>44550.0</v>
-      </c>
-      <c r="E24" s="206">
-        <v>44559.0</v>
-      </c>
-      <c r="F24" s="207">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="220" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
-      <c r="U24" s="218"/>
-      <c r="V24" s="218"/>
-      <c r="W24" s="218"/>
-      <c r="X24" s="218"/>
-      <c r="Y24" s="218"/>
-      <c r="Z24" s="218"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="210"/>
+      <c r="O24" s="210"/>
+      <c r="P24" s="210"/>
+      <c r="Q24" s="210"/>
+      <c r="R24" s="210"/>
+      <c r="S24" s="210"/>
+      <c r="T24" s="210"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="212" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="204" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="205" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="206">
-        <v>44555.0</v>
-      </c>
-      <c r="E25" s="206">
-        <v>44559.0</v>
-      </c>
-      <c r="F25" s="207">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="220" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="218"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="218"/>
-      <c r="S25" s="218"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="218"/>
-      <c r="V25" s="218"/>
-      <c r="W25" s="218"/>
-      <c r="X25" s="218"/>
-      <c r="Y25" s="218"/>
-      <c r="Z25" s="218"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="210"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="210"/>
+      <c r="Q25" s="210"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
+      <c r="V25" s="210"/>
+      <c r="W25" s="210"/>
+      <c r="X25" s="210"/>
+      <c r="Y25" s="210"/>
+      <c r="Z25" s="210"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="212" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="205" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="206">
-        <v>44559.0</v>
-      </c>
-      <c r="E26" s="206">
-        <v>44559.0</v>
-      </c>
-      <c r="F26" s="207">
-        <v>0.8</v>
-      </c>
-      <c r="G26" s="220" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="218"/>
-      <c r="T26" s="218"/>
-      <c r="U26" s="218"/>
-      <c r="V26" s="218"/>
-      <c r="W26" s="218"/>
-      <c r="X26" s="218"/>
-      <c r="Y26" s="218"/>
-      <c r="Z26" s="218"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="210"/>
+      <c r="N26" s="210"/>
+      <c r="O26" s="210"/>
+      <c r="P26" s="210"/>
+      <c r="Q26" s="210"/>
+      <c r="R26" s="210"/>
+      <c r="S26" s="210"/>
+      <c r="T26" s="210"/>
+      <c r="U26" s="210"/>
+      <c r="V26" s="210"/>
+      <c r="W26" s="210"/>
+      <c r="X26" s="210"/>
+      <c r="Y26" s="210"/>
+      <c r="Z26" s="210"/>
     </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
